--- a/中间数据集/未来七天成本预测结果.xlsx
+++ b/中间数据集/未来七天成本预测结果.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.916015125631726</v>
+        <v>7.89</v>
       </c>
       <c r="C2" t="n">
-        <v>3.112513013152894</v>
+        <v>3.16</v>
       </c>
       <c r="D2" t="n">
-        <v>4.920677107009881</v>
+        <v>4.96</v>
       </c>
       <c r="E2" t="n">
-        <v>4.674564843391219</v>
+        <v>4.69</v>
       </c>
       <c r="F2" t="n">
-        <v>7.618482207755141</v>
+        <v>7.63</v>
       </c>
       <c r="G2" t="n">
-        <v>12.61012383471723</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.9280529957908</v>
+        <v>7.89</v>
       </c>
       <c r="C3" t="n">
-        <v>3.138525610141794</v>
+        <v>3.17</v>
       </c>
       <c r="D3" t="n">
-        <v>4.926917297764162</v>
+        <v>4.93</v>
       </c>
       <c r="E3" t="n">
-        <v>4.68082788403077</v>
+        <v>4.63</v>
       </c>
       <c r="F3" t="n">
-        <v>7.565641303737028</v>
+        <v>7.62</v>
       </c>
       <c r="G3" t="n">
-        <v>12.51602961649325</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.924801875671822</v>
+        <v>7.89</v>
       </c>
       <c r="C4" t="n">
-        <v>3.159226564819645</v>
+        <v>3.15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.909599290319655</v>
+        <v>4.96</v>
       </c>
       <c r="E4" t="n">
-        <v>4.707001516361712</v>
+        <v>4.65</v>
       </c>
       <c r="F4" t="n">
-        <v>7.651608954299217</v>
+        <v>7.55</v>
       </c>
       <c r="G4" t="n">
-        <v>12.72446545592538</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.91229299350354</v>
+        <v>7.92</v>
       </c>
       <c r="C5" t="n">
-        <v>3.103637021060335</v>
+        <v>3.1</v>
       </c>
       <c r="D5" t="n">
-        <v>4.939614658286396</v>
+        <v>4.92</v>
       </c>
       <c r="E5" t="n">
-        <v>4.655269844129203</v>
+        <v>4.67</v>
       </c>
       <c r="F5" t="n">
-        <v>7.595003292437241</v>
+        <v>7.56</v>
       </c>
       <c r="G5" t="n">
-        <v>12.55119303935427</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.916015125631726</v>
+        <v>7.89</v>
       </c>
       <c r="C6" t="n">
-        <v>3.112513013152894</v>
+        <v>3.16</v>
       </c>
       <c r="D6" t="n">
-        <v>4.920677107009881</v>
+        <v>4.96</v>
       </c>
       <c r="E6" t="n">
-        <v>4.674564843391219</v>
+        <v>4.69</v>
       </c>
       <c r="F6" t="n">
-        <v>7.618482207755141</v>
+        <v>7.63</v>
       </c>
       <c r="G6" t="n">
-        <v>12.61012383471723</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.9280529957908</v>
+        <v>7.89</v>
       </c>
       <c r="C7" t="n">
-        <v>3.138525610141794</v>
+        <v>3.17</v>
       </c>
       <c r="D7" t="n">
-        <v>4.926917297764162</v>
+        <v>4.93</v>
       </c>
       <c r="E7" t="n">
-        <v>4.68082788403077</v>
+        <v>4.63</v>
       </c>
       <c r="F7" t="n">
-        <v>7.565641303737028</v>
+        <v>7.62</v>
       </c>
       <c r="G7" t="n">
-        <v>12.51602961649325</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.924801875671822</v>
+        <v>7.89</v>
       </c>
       <c r="C8" t="n">
-        <v>3.159226564819645</v>
+        <v>3.15</v>
       </c>
       <c r="D8" t="n">
-        <v>4.909599290319655</v>
+        <v>4.96</v>
       </c>
       <c r="E8" t="n">
-        <v>4.707001516361712</v>
+        <v>4.65</v>
       </c>
       <c r="F8" t="n">
-        <v>7.651608954299217</v>
+        <v>7.55</v>
       </c>
       <c r="G8" t="n">
-        <v>12.72446545592538</v>
+        <v>12.56</v>
       </c>
     </row>
   </sheetData>
